--- a/phychologyDB.xlsx
+++ b/phychologyDB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gao.ling\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gao.ling\work\PsychologicalTests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,50 +24,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>database  Questions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>table  Questions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qid</t>
   </si>
   <si>
     <t>qname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qanswer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qimportance</t>
+  </si>
+  <si>
+    <t>table Answers</t>
+  </si>
+  <si>
+    <t>qoption</t>
   </si>
   <si>
     <t>qratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>relavent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qimportance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relavent(该选项关联的下个问题)</t>
+  </si>
+  <si>
+    <t>qtype(单选or多选)</t>
   </si>
   <si>
     <t>table Selected</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>seleted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table Answers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table users</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>table admin</t>
+  </si>
+  <si>
+    <t>admin</t>
   </si>
 </sst>
 </file>
@@ -397,71 +407,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D11"/>
+  <dimension ref="A2:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="5" max="5" width="25.5" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/phychologyDB.xlsx
+++ b/phychologyDB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gao.ling\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gao.ling\work\PsychologicalTests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>database  Questions</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>history</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>qoption</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,11 +86,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>qid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>relavent(该选项关联的下个问题)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag(0表示普通 1 表示有binding 2 表示被binding 3表示既有binding又被binding)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,104 +441,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E17"/>
+  <dimension ref="A2:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A1:E18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="28.875" customWidth="1"/>
-    <col min="5" max="5" width="20.875" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="28.875" customWidth="1"/>
+    <col min="6" max="6" width="20.875" customWidth="1"/>
+    <col min="7" max="7" width="48.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
         <v>10</v>
       </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/phychologyDB.xlsx
+++ b/phychologyDB.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>database  Questions</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,7 +34,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>qname</t>
+    <t>qid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table Selected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag(0表示普通 1 表示有binding 2 表示被binding 3表示既有binding又被binding)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table Answers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>question</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>importance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type(单选or多选)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -42,75 +118,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>qid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qimportance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table Selected</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seleted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table Answers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table users</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>history</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qoption</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qtype(单选or多选)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>relavent(该选项关联的下个问题)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tag(0表示普通 1 表示有binding 2 表示被binding 3表示既有binding又被binding)</t>
+    <t>answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>binding(该选项关联的下个问题)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -468,101 +480,101 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
         <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
         <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>19</v>
-      </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
